--- a/Companies/Aerospace & Defence/Bharat Electronics Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Aerospace & Defence/Bharat Electronics Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>3,993.32</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4,136.69</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8,528.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4,198.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>4,583.41</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4,198.77</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8,528.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4,136.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3,993.32</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>8528.540000000001</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>3993.32</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>5088.146</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>3,993.32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4,136.69</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8,528.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4,198.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>4,583.41</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4,198.77</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8,528.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4,136.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3,993.32</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>8528.540000000001</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>3993.32</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>5088.146</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>1,924.53</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2,184.61</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4,571.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2,521.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2,419.79</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2,521.15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4,571.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2,184.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1,924.53</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>4571.12</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1924.53</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>2724.24</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>177.77</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>176.07</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>177.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>85.25</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>66.88</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>177.96</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>176.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>177.77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>177.96</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>66.88</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>136.786</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-57.13</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-223.72</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-349.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-297.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>-363.42</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-297.40</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-349.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-223.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-57.13</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>-57.13</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-363.42</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-258.274</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>593.43</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>619.57</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>630.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>660.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>650.03</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>660.78</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>630.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>619.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>593.43</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>660.78</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>593.4299999999999</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>630.7619999999999</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.43</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>110.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>103.16</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>110.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.80</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.43</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>110.93</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>99.72</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>102.808</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>350.35</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>330.74</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1,219.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>310.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>403.23</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>310.62</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1,219.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>330.74</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>350.35</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1219.21</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>310.62</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>522.83</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>903.94</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>949.62</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,169.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>837.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,285.37</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>837.02</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,169.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>949.62</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>903.94</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2169.02</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>837.02</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1228.994</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>170.51</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>223.15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>220.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>201.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>166.83</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>201.50</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>220.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>223.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>170.51</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>223.15</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>166.83</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>196.502</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,074.45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,172.77</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2,389.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,038.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,452.20</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,038.52</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2,389.54</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,172.77</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,074.45</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>2389.54</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1038.52</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1425.496</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1.32</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1.69</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,072.94</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,172.26</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,385.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,037.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,450.88</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,037.34</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,385.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,172.26</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,072.94</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2385.61</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1037.34</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1423.806</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,072.94</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,172.26</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,385.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,037.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,450.88</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1,037.34</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,385.61</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,172.26</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,072.94</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2385.61</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1037.34</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1423.806</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>260.60</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>278.96</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>602.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>261.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>359.61</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>261.20</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>602.09</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>278.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>260.60</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>602.09</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>352.492</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>812.34</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>893.30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,783.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>776.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,091.27</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>776.14</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,783.52</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>893.30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>812.34</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1783.52</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>776.14</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1071.314</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>812.34</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>893.30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,783.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>776.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,091.27</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>776.14</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,783.52</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>893.30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>812.34</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1783.52</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>776.14</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1071.314</v>
       </c>
     </row>
     <row r="21">
@@ -1231,15 +1055,6 @@
         <is>
           <t>730.98</t>
         </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>730.98</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>730.98</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>730.98</v>
       </c>
     </row>
     <row r="22"/>
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>1.49</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>1.464</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>1.49</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>1.464</v>
       </c>
     </row>
     <row r="26"/>
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>1.49</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>1.464</v>
       </c>
     </row>
     <row r="29">
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>1.49</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>1.464</v>
       </c>
     </row>
     <row r="30"/>
